--- a/medicine/Mort/Décès_en_1926/Décès_en_1926.xlsx
+++ b/medicine/Mort/Décès_en_1926/Décès_en_1926.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1926</t>
+          <t>Décès_en_1926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1926</t>
+          <t>Décès_en_1926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Eugène Buland, peintre français (° 26 octobre 1852).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Eugène Buland, peintre français (° 26 octobre 1852).
 Jean Danguy, peintre français (° 24 novembre 1863).
 Léon Hingre, peintre et illustrateur français (° 6 janvier 1860).
 Paul Pujol, peintre et architecte français (° 22 novembre 1848).
@@ -537,9 +554,43 @@
 Vers 1926  François Brunery, peintre italien (° 1849).
 Après 1926 :
 Joseph Louis Cornier-Miramont, peintre et sculpteur français (° 3 mai 1876).
-Frank Wilson, réalisateur, acteur et scénariste britannique (° 1873).
-Janvier
-2 janvier : Marcel Chadeigne, pianiste et compositeur français (° 2 janvier 1876).
+Frank Wilson, réalisateur, acteur et scénariste britannique (° 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Marcel Chadeigne, pianiste et compositeur français (° 2 janvier 1876).
 4 janvier :
 Paul de La Boulaye, peintre français (° 24 janvier 1849).
 Sophie de Niederhausern, peintre paysagiste suisse (° 12 janvier 1856).
@@ -557,9 +608,43 @@
 29 janvier :
 Pierre Bracquemond, peintre et dessinateur français (° 30 janvier 1870).
 Henry Tenré, peintre français (° 14 octobre 1854).
-31 janvier : Giovanni Beltrami, peintre, illustrateur, critique d'art et affichiste italien (° 26 février 1860).
-Février
-4 février :
+31 janvier : Giovanni Beltrami, peintre, illustrateur, critique d'art et affichiste italien (° 26 février 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février :
 Paul Alphonse Marsac, peintre français (° 22 juillet 1865).
 Adolphe Willette, peintre, illustrateur, affichiste, lithographe et caricaturiste français (° 30 juillet 1857).
 5 février :
@@ -575,21 +660,123 @@
 18 février : Litri (Manuel Báez Gómez), matador espagnol (° 13 août 1905).
 21 février : Eugen Zardetti, peintre suisse (° 27 novembre 1849).
 25 février : Ernest Édouard Martens, peintre français (° 8 juin 1865).
-26 février : Peter Lange-Müller, compositeur et pianiste danois (° 1er décembre 1850).
-Mars
-1er mars : Marietta Holley, humoriste américaine (° 16 juillet 1836).
+26 février : Peter Lange-Müller, compositeur et pianiste danois (° 1er décembre 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Marietta Holley, humoriste américaine (° 16 juillet 1836).
 9 mars : Fatix Ämirxan, éditeur et écrivain soviétique (° 1er janvier 1886).
 11 mars : Mikao Usui, fondateur japonais du reiki (° 15 août 1865).
 15 mars : Dmitri Fourmanov, écrivain russe (° 7 novembre 1891).
-22 mars : Alfred Guillou, peintre français (° 12 septembre 1844).
-Avril
-1er avril : Charles Angrand, peintre néo-impressionniste français de l'École de Rouen (° 19 avril 1854).
+22 mars : Alfred Guillou, peintre français (° 12 septembre 1844).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Charles Angrand, peintre néo-impressionniste français de l'École de Rouen (° 19 avril 1854).
 8 avril : Maurice Biais, peintre, dessinateur et affichiste français (° 30 décembre 1872).
 18 avril : Camille Janssen, homme politique belge (° 5 décembre 1837).
 23 avril : Théodore Roussel, peintre et graveur britannique d'origine française (° 23 mars 1847).
-24 avril : Luis Mazzantini, matador espagnol (° 10 octobre 1856).
-Mai
-14 mai : Lizzie Crozier French, éducatrice américaine et militante féministe (° 7 mai 1851).
+24 avril : Luis Mazzantini, matador espagnol (° 10 octobre 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>14 mai : Lizzie Crozier French, éducatrice américaine et militante féministe (° 7 mai 1851).
 18 mai : Nikolaus Szécsen von Temerin, diplomate autrichien d'origine hongroise, actif pendant la période austro-hongroise (° 26 novembre 1857).
 19 mai : Mustapha Nador, musicien algérien, précurseur du genre chaâbi (° 3 avril 1874).
 21 mai :
@@ -597,16 +784,84 @@
 Georgi Lvovitch Catoire, compositeur russe puis soviétique d’origine française (° 27 avril 1861).
 23 mai : Hans von Koessler, compositeur, organiste, chef d'orchestre et pédagogue allemand (° 1er janvier 1853).
 27 mai : Jeanna Bauck, peintre suédo-allemande (° 19 août 1840).
-31 mai : Stanisław Masłowski, peintre polonais (° 3 décembre 1853).
-Juin
-2 juin : Hans Hermann von Berlepsch, homme politique allemand (° 30 mars 1843).
+31 mai : Stanisław Masłowski, peintre polonais (° 3 décembre 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Hans Hermann von Berlepsch, homme politique allemand (° 30 mars 1843).
 10 juin : Antoni Gaudí, architecte espagnol (° 25 juin 1852).
 13 juin : Mariano Montes, matador espagnol (° 22 avril 1894).
 24 juin : G. P. Nerli, peintre italien (° 21 février 1860).
 29 juin : Margaret Dockrell, suffragiste, philanthrope et conseillère municipale irlandaise (° 18 mars 1849).
-30 juin : Lionel Royer, peintre français (° 25 décembre 1852).
-Juillet
-2 juillet : Émile Coué, père éponyme de la méthode Coué (° 26 février 1857).
+30 juin : Lionel Royer, peintre français (° 25 décembre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Émile Coué, père éponyme de la méthode Coué (° 26 février 1857).
 12 juillet : Charles Wood, compositeur, pédagogue et organiste irlandais (° 15 juin 1866).
 20 juillet : Félix Dzerjinski, révolutionnaire communiste russe puis soviétique (° 11 septembre 1877).
 23 juillet :
@@ -617,9 +872,43 @@
 28 juillet : Jenő Károly, footballeur et entraîneur hongrois (° 15 janvier 1886).
 30 juillet :
 Ernest Dagonet, sculpteur français (° 4 mai 1856).
-Lauro Severiano Müller, diplomate et homme politique brésilien (° 8 novembre 1863).
-Août
-1er août :
+Lauro Severiano Müller, diplomate et homme politique brésilien (° 8 novembre 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août :
 Charles Amable Lenoir, peintre français (° 22 octobre 1860).
 Henri Rovel, peintre, compositeur et météorologue français (° 8 juillet 1849).
 3 août :
@@ -636,15 +925,83 @@
 Rudolph Valentino, acteur italien (° 6 mai 1895).
 25 août : Thomas Moran, peintre américain (° 12 février 1837).
 26 août : Doktor Nâzım, dirigeant des Jeunes-Turcs et ministre de l'Éducation publique ottoman (° 1870).
-29 août : Amadé Barth, peintre suisse (° 11 octobre 1926).
-Septembre
-2 septembre : Jeanne Malivel, peintre, illustratrice et graveuse française (° 15 avril 1895).
+29 août : Amadé Barth, peintre suisse (° 11 octobre 1926).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Jeanne Malivel, peintre, illustratrice et graveuse française (° 15 avril 1895).
 11 septembre : Bethenia Angelina Owens-Adair, réformatrice sociale américaine (° 8 février 1840).
 13 septembre : Alfred von Bary, ténor germano-maltais (° 18 janvier 1873).
 27 septembre : Georges Guigue, historien et archiviste français (° 8 novembre 1861).
-29 septembre : Stanislas-Arthur-Xavier Touchet, cardinal français, évêque d'Orléans (° 13 novembre 1848).
-Octobre
-3 octobre :
+29 septembre : Stanislas-Arthur-Xavier Touchet, cardinal français, évêque d'Orléans (° 13 novembre 1848).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre :
 Otto Eerelman, peintre, graveur et lithographe néerlandais (° 23 mars 1839).
 Édouard Herzig, peintre et caricaturiste français d'origine suisse (° 23 décembre 1860).
 14 octobre : Wenceslas Pająk, peintre polonais (° 7 août 1891).
@@ -652,16 +1009,84 @@
 18 octobre : James Carroll, homme politique néo-zélandais (° 20 août 1857).
 20 octobre : Agustín Ross, juriste et diplomate chilien (° 5 février 1844).
 25 octobre : Élie Laurent, peintre français (° 7 décembre 1841).
-29 octobre : Joseph-Noël Sylvestre, peintre français (° 24 juin 1847).
-Novembre
-16 novembre :  Karel Klíč, peintre, photographe et illustrateur autrichien, austro-hongrois puis tchécoslovaque (° 30 mai 1841).
+29 octobre : Joseph-Noël Sylvestre, peintre français (° 24 juin 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>16 novembre :  Karel Klíč, peintre, photographe et illustrateur autrichien, austro-hongrois puis tchécoslovaque (° 30 mai 1841).
 22 novembre :
 Percy Carr, acteur britannique (° 25 août 1873).
 Darvish Khan, maître de la musique persane (° 1872).
 24 novembre : Leonid Krassine, dirigeant bolchevik russe puis soviétique (° 3 juillet 1870).
-27 novembre : Dmitri Chtcherbinovski, peintre impressionniste russe puis soviétique (° 13 janvier 1867).
-Décembre
-2 décembre :
+27 novembre : Dmitri Chtcherbinovski, peintre impressionniste russe puis soviétique (° 13 janvier 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1926</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre :
 Gérard Cooreman, homme politique belge (° 25 mars 1852).
 Alexis Mossa, peintre français de genre, de figures et de paysages (° 15 octobre 1844).
 5 décembre : Claude Monet, peintre français (° 14 novembre 1840).
